--- a/biology/Botanique/Liste_des_familles_botaniques_présentes_en_Bourgogne/Liste_des_familles_botaniques_présentes_en_Bourgogne.xlsx
+++ b/biology/Botanique/Liste_des_familles_botaniques_présentes_en_Bourgogne/Liste_des_familles_botaniques_présentes_en_Bourgogne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_familles_botaniques_pr%C3%A9sentes_en_Bourgogne</t>
+          <t>Liste_des_familles_botaniques_présentes_en_Bourgogne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article liste la totalité des familles de végétaux vasculaires que l'on peut rencontrer à l'état sauvage en Bourgogne.
 Les noms des familles et leur ordre sont ceux adoptés par H. Poinsot dans Flore de Bourgogne en 1972, lui-même inspiré du Syllabus der Planzenfamilien d'Adolf Engler, 1964. Bien qu'ancien, ce mode de classification est encore le plus répandu dans la littérature.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_familles_botaniques_pr%C3%A9sentes_en_Bourgogne</t>
+          <t>Liste_des_familles_botaniques_présentes_en_Bourgogne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous-division des ptéridophytes
--01- Équisétacées
+          <t>Sous-division des ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-01- Équisétacées
 -02- Lycopodiacées
 -03- Polypodiacées
 -04- Osmondacées
@@ -530,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_familles_botaniques_pr%C3%A9sentes_en_Bourgogne</t>
+          <t>Liste_des_familles_botaniques_présentes_en_Bourgogne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,13 +567,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sous-division des gymnospermes
--xx- Taxacées
+          <t>Sous-division des gymnospermes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-xx- Taxacées
 -07- Pinacées
--08- Cupressacées
-Sous-division des angiospermes ou magnoliophyta
-Classe des monocotylédones ou liliopsida
--09- Alismatacées
+-08- Cupressacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_familles_botaniques_présentes_en_Bourgogne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_familles_botaniques_pr%C3%A9sentes_en_Bourgogne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Division des phanérogames</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-division des angiospermes ou magnoliophyta</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Classe des monocotylédones ou liliopsida</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-09- Alismatacées
 -10- Butomacées
 -11- Hydrocharitacées
 -12- Scheuchzériacées
@@ -575,9 +634,47 @@
 -25- Sparganiacées
 -26- Typhacées
 -27- Cypéracées
--28- Orchidacées
-Classe des dicotylédones ou magnolopsida
-Sous-classe des archichlamydées
+-28- Orchidacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_familles_botaniques_présentes_en_Bourgogne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_familles_botaniques_pr%C3%A9sentes_en_Bourgogne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Division des phanérogames</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-division des angiospermes ou magnoliophyta</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Classe des dicotylédones ou magnolopsida</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-classe des archichlamydées
 Ordre des apétales
 -29- Juglandacées
 -30- Salicacées
